--- a/hw4/week_ASKSR_rank.xlsx
+++ b/hw4/week_ASKSR_rank.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>etf</t>
   </si>
@@ -55,6 +55,9 @@
     <t>FWDI</t>
   </si>
   <si>
+    <t>AADR</t>
+  </si>
+  <si>
     <t>IFV</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>FAN</t>
   </si>
   <si>
+    <t>HGI</t>
+  </si>
+  <si>
     <t>LIT</t>
   </si>
   <si>
@@ -116,9 +122,6 @@
   </si>
   <si>
     <t>EEM</t>
-  </si>
-  <si>
-    <t>HGI</t>
   </si>
   <si>
     <t>VIDI</t>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>-0.0563342164863441</v>
+        <v>-0.04814117621037663</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -655,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>-0.05992521967130538</v>
+        <v>-0.0563342164863441</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -666,7 +669,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>-0.0715531310911507</v>
+        <v>-0.05992521967130538</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -677,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>-0.07173010948579042</v>
+        <v>-0.0715531310911507</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -688,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-0.0768295938328748</v>
+        <v>-0.07173010948579042</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -699,7 +702,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-0.08105294203085195</v>
+        <v>-0.0768295938328748</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -710,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-0.084282718951222</v>
+        <v>-0.08105294203085195</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -721,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>-0.08736208622955077</v>
+        <v>-0.084282718951222</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -732,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>-0.09362001089537139</v>
+        <v>-0.08736208622955077</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -743,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>-0.09482306274965055</v>
+        <v>-0.09362001089537139</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -754,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>-0.101892647233786</v>
+        <v>-0.09482306274965055</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -765,7 +768,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>-0.1039947243718897</v>
+        <v>-0.0975914968345689</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -776,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>-0.1054506198168746</v>
+        <v>-0.101892647233786</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -787,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>-0.1079073430994634</v>
+        <v>-0.1039947243718897</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -798,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>-0.1086970684275973</v>
+        <v>-0.1054506198168746</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -809,7 +812,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>-0.1103993603329222</v>
+        <v>-0.1079073430994634</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -820,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>-0.1130180977087158</v>
+        <v>-0.1086970684275973</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -831,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>-0.1148383090007091</v>
+        <v>-0.1103993603329222</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -842,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>-0.1148785118049609</v>
+        <v>-0.1130180977087158</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -853,7 +856,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>-0.1170280738243626</v>
+        <v>-0.1148383090007091</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -864,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>-0.1178586963331294</v>
+        <v>-0.1148785118049609</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -875,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>-0.1210305658413504</v>
+        <v>-0.1170280738243626</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -886,7 +889,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>-0.1217243562735125</v>
+        <v>-0.1178586963331294</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -897,7 +900,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>-0.1219989044410155</v>
+        <v>-0.1217243562735125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -908,7 +911,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>-0.1231379108580027</v>
+        <v>-0.1219989044410155</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -919,7 +922,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>-0.1235723415797937</v>
+        <v>-0.1231379108580027</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -930,7 +933,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>-0.1258604255481801</v>
+        <v>-0.1235723415797937</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -941,7 +944,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-0.1301859242275838</v>
+        <v>-0.1258604255481801</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -952,7 +955,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>-0.1339791647838795</v>
+        <v>-0.1301859242275838</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -963,7 +966,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-0.1481406077551869</v>
+        <v>-0.1339791647838795</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -974,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-0.1527448678762687</v>
+        <v>-0.1481406077551869</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -985,7 +988,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-0.1679230565132673</v>
+        <v>-0.1527448678762687</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -996,6 +999,17 @@
         <v>45</v>
       </c>
       <c r="C44">
+        <v>-0.1679230565132673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
         <v>-0.1947131578861397</v>
       </c>
     </row>
